--- a/AAII_Financials/Quarterly/GHLD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GHLD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="92">
   <si>
     <t>GHLD</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,39 +665,40 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -710,23 +711,26 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>620000</v>
+      </c>
+      <c r="E8" s="3">
         <v>836500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1023500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>422400</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
@@ -739,8 +743,11 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -768,8 +775,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -797,8 +807,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,8 +823,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -839,8 +853,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,8 +885,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -897,23 +917,26 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E15" s="3">
         <v>3100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>7300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>3800</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
       </c>
@@ -926,8 +949,11 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,23 +962,24 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>358200</v>
+      </c>
+      <c r="E17" s="3">
         <v>661900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>962300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>461700</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
       </c>
@@ -965,23 +992,26 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>261800</v>
+      </c>
+      <c r="E18" s="3">
         <v>174600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>61200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-39300</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -994,8 +1024,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,8 +1040,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1021,8 +1055,8 @@
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1036,23 +1070,26 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>263300</v>
+      </c>
+      <c r="E21" s="3">
         <v>177800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>68600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-35900</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1065,23 +1102,26 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E22" s="3">
         <v>27400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>55400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>23100</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1094,23 +1134,26 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>246300</v>
+      </c>
+      <c r="E23" s="3">
         <v>147200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-62400</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1123,23 +1166,26 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>64200</v>
+      </c>
+      <c r="E24" s="3">
         <v>36500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-15400</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1152,8 +1198,11 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,23 +1230,26 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>182100</v>
+      </c>
+      <c r="E26" s="3">
         <v>110800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-47000</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1210,23 +1262,26 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>182100</v>
+      </c>
+      <c r="E27" s="3">
         <v>110800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-47000</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1239,8 +1294,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1326,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1358,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1390,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,8 +1422,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1369,8 +1439,8 @@
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1384,23 +1454,26 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>182100</v>
+      </c>
+      <c r="E33" s="3">
         <v>110800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-47000</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1413,8 +1486,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,23 +1518,26 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>182100</v>
+      </c>
+      <c r="E35" s="3">
         <v>110800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-47000</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1471,28 +1550,31 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1505,8 +1587,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1603,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,17 +1617,18 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>247300</v>
+      </c>
+      <c r="E41" s="3">
         <v>144900</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1560,8 +1647,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1589,17 +1679,20 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>34800</v>
+      </c>
+      <c r="E43" s="3">
         <v>27600</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1618,8 +1711,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1647,17 +1743,20 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E45" s="3">
         <v>15200</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1676,8 +1775,11 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1705,17 +1807,20 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2239200</v>
+      </c>
+      <c r="E47" s="3">
         <v>1982600</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1734,17 +1839,20 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E48" s="3">
         <v>10300</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1763,16 +1871,19 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>62800</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
+      <c r="E49" s="3">
+        <v>62800</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -1792,8 +1903,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +1935,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,17 +1967,20 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3500</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,8 +1999,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,17 +2031,20 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4397100</v>
+      </c>
+      <c r="E54" s="3">
         <v>3703000</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1937,8 +2063,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2079,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,17 +2093,18 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>72200</v>
+      </c>
+      <c r="E57" s="3">
         <v>36000</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1992,8 +2123,11 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2021,17 +2155,20 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>99700</v>
+      </c>
+      <c r="E59" s="3">
         <v>106700</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2050,8 +2187,11 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2079,17 +2219,20 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3297000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2830100</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2108,17 +2251,20 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>181600</v>
+      </c>
+      <c r="E62" s="3">
         <v>141600</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2137,8 +2283,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2315,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2347,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,17 +2379,20 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3708200</v>
+      </c>
+      <c r="E66" s="3">
         <v>3196200</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2253,8 +2411,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2427,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2457,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,8 +2489,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2353,8 +2521,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,17 +2553,20 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>666800</v>
+      </c>
+      <c r="E72" s="3">
         <v>484700</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2411,8 +2585,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2617,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2649,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,17 +2681,20 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>688900</v>
+      </c>
+      <c r="E76" s="3">
         <v>506800</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,8 +2713,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,28 +2745,31 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2590,23 +2782,26 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>182100</v>
+      </c>
+      <c r="E81" s="3">
         <v>110800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-47000</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2619,8 +2814,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,20 +2830,21 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E83" s="3">
         <v>3100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7300</v>
       </c>
-      <c r="F83" s="3">
-        <v>3400</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2661,8 +2860,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +2892,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +2924,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +2956,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +2988,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,20 +3020,23 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-133900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-283800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-424700</v>
       </c>
-      <c r="F89" s="3">
-        <v>-301100</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2835,8 +3052,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,19 +3068,20 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3700</v>
+        <v>-3300</v>
       </c>
       <c r="E91" s="3">
         <v>-3700</v>
       </c>
       <c r="F91" s="3">
-        <v>-1500</v>
+        <v>-3700</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -2877,8 +3098,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3130,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,20 +3162,23 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-15600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-13500</v>
       </c>
-      <c r="F94" s="3">
-        <v>-2300</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2964,8 +3194,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3210,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3240,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3272,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3304,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,20 +3336,23 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>241100</v>
+      </c>
+      <c r="E100" s="3">
         <v>341200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>482200</v>
       </c>
-      <c r="F100" s="3">
-        <v>317700</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3122,8 +3368,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3151,20 +3400,23 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>103800</v>
+      </c>
+      <c r="E102" s="3">
         <v>41700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>44000</v>
       </c>
-      <c r="F102" s="3">
-        <v>14300</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,6 +3430,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GHLD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GHLD_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,47 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -714,29 +715,35 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>507000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>521900</v>
+      </c>
+      <c r="F8" s="3">
         <v>620000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>836500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1023500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>422400</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
@@ -746,8 +753,14 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -778,8 +791,14 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -810,8 +829,14 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -824,8 +849,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -856,8 +883,14 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -888,8 +921,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -920,29 +959,35 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F15" s="3">
         <v>1500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>3100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>7300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>3800</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
@@ -952,8 +997,14 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -963,29 +1014,31 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>276800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>404200</v>
+      </c>
+      <c r="F17" s="3">
         <v>358200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>661900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>962300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>461700</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
@@ -995,29 +1048,35 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>230200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>117700</v>
+      </c>
+      <c r="F18" s="3">
         <v>261800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>174600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>61200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-39300</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1027,8 +1086,14 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1041,8 +1106,10 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1058,11 +1125,11 @@
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1073,29 +1140,35 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>231800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>120600</v>
+      </c>
+      <c r="F21" s="3">
         <v>263300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>177800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>68600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-35900</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1105,29 +1178,35 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>17200</v>
+      </c>
+      <c r="F22" s="3">
         <v>15500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>27400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>55400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>23100</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1137,29 +1216,35 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>213600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>100500</v>
+      </c>
+      <c r="F23" s="3">
         <v>246300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>147200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>5800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-62400</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1169,29 +1254,35 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>22800</v>
+      </c>
+      <c r="F24" s="3">
         <v>64200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>36500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-15400</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1201,8 +1292,14 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,29 +1330,35 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>160600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>77700</v>
+      </c>
+      <c r="F26" s="3">
         <v>182100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>110800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>5600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-47000</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1265,29 +1368,35 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>160600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>77700</v>
+      </c>
+      <c r="F27" s="3">
         <v>182100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>110800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>5600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-47000</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1297,8 +1406,14 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1329,8 +1444,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1361,8 +1482,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1393,8 +1520,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1425,8 +1558,14 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1442,11 +1581,11 @@
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1457,29 +1596,35 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>160600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>77700</v>
+      </c>
+      <c r="F33" s="3">
         <v>182100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>110800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>5600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-47000</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1489,8 +1634,14 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1521,29 +1672,35 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>160600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>77700</v>
+      </c>
+      <c r="F35" s="3">
         <v>182100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>110800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>5600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-47000</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1553,34 +1710,40 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1590,8 +1753,14 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1604,8 +1773,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1618,23 +1789,25 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>315500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>334600</v>
+      </c>
+      <c r="F41" s="3">
         <v>247300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>144900</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1650,8 +1823,14 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1682,23 +1861,29 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>44900</v>
+      </c>
+      <c r="F43" s="3">
         <v>34800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>27600</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1714,8 +1899,14 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1746,23 +1937,29 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E45" s="3">
         <v>16700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
+        <v>16700</v>
+      </c>
+      <c r="G45" s="3">
         <v>15200</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1778,8 +1975,14 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1810,23 +2013,29 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2346000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2368900</v>
+      </c>
+      <c r="F47" s="3">
         <v>2239200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>1982600</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1842,23 +2051,29 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>102300</v>
+      </c>
+      <c r="F48" s="3">
         <v>12100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>10300</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1874,8 +2089,14 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1885,11 +2106,11 @@
       <c r="E49" s="3">
         <v>62800</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+      <c r="F49" s="3">
+        <v>62800</v>
+      </c>
+      <c r="G49" s="3">
+        <v>62800</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1906,8 +2127,14 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1938,8 +2165,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1970,23 +2203,29 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E52" s="3">
         <v>5000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G52" s="3">
         <v>3500</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2002,8 +2241,14 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2034,23 +2279,29 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4877900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4818100</v>
+      </c>
+      <c r="F54" s="3">
         <v>4397100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>3703000</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2066,8 +2317,14 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2080,8 +2337,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2094,23 +2353,25 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>43700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>41100</v>
+      </c>
+      <c r="F57" s="3">
         <v>72200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>36000</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,8 +2387,14 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2158,23 +2425,29 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>195600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>220700</v>
+      </c>
+      <c r="F59" s="3">
         <v>99700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>106700</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2190,8 +2463,14 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2222,23 +2501,29 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3478100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3566200</v>
+      </c>
+      <c r="F61" s="3">
         <v>3297000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2830100</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2254,23 +2539,29 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>226700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>178600</v>
+      </c>
+      <c r="F62" s="3">
         <v>181600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>141600</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,8 +2577,14 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2318,8 +2615,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2350,8 +2653,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2382,23 +2691,29 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3979700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4082100</v>
+      </c>
+      <c r="F66" s="3">
         <v>3708200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3196200</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2414,8 +2729,14 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2428,8 +2749,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2460,8 +2783,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2492,8 +2821,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2524,8 +2859,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2556,23 +2897,29 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>878000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>717400</v>
+      </c>
+      <c r="F72" s="3">
         <v>666800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>484700</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2588,8 +2935,14 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2620,8 +2973,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2652,8 +3011,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2684,23 +3049,29 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>898200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>736000</v>
+      </c>
+      <c r="F76" s="3">
         <v>688900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>506800</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2716,8 +3087,14 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2748,34 +3125,40 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2785,29 +3168,35 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>160600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>77700</v>
+      </c>
+      <c r="F81" s="3">
         <v>182100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>110800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>5600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-47000</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2817,8 +3206,14 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2831,28 +3226,30 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F83" s="3">
         <v>1500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>3100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>7300</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3">
+        <v>3400</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -2863,8 +3260,14 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2895,8 +3298,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2927,8 +3336,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2959,8 +3374,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2991,8 +3412,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3023,28 +3450,34 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-50300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-133900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-283800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-424700</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+      <c r="I89" s="3">
+        <v>-301100</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3055,8 +3488,14 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3069,28 +3508,30 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-3300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-3700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-3700</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+      <c r="I91" s="3">
+        <v>-1500</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3101,8 +3542,14 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3133,8 +3580,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3165,28 +3618,34 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-3300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-15600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-13500</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="I94" s="3">
+        <v>-2300</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3197,8 +3656,14 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3211,8 +3676,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3243,8 +3710,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3275,8 +3748,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3307,8 +3786,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3339,28 +3824,34 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-53400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>136700</v>
+      </c>
+      <c r="F100" s="3">
         <v>241100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>341200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>482200</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+      <c r="I100" s="3">
+        <v>317700</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3371,8 +3862,14 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3403,28 +3900,34 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>87300</v>
+      </c>
+      <c r="F102" s="3">
         <v>103800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>41700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>44000</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+      <c r="I102" s="3">
+        <v>14300</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3433,6 +3936,12 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GHLD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GHLD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="92">
   <si>
     <t>GHLD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,50 +665,51 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -721,32 +722,35 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>393100</v>
+      </c>
+      <c r="E8" s="3">
         <v>507000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>521900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>620000</v>
       </c>
-      <c r="G8" s="3">
-        <v>836500</v>
-      </c>
       <c r="H8" s="3">
+        <v>837500</v>
+      </c>
+      <c r="I8" s="3">
         <v>1023500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>422400</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
@@ -759,8 +763,11 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -797,8 +804,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -835,8 +845,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,8 +864,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -889,8 +903,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -927,8 +944,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -965,32 +985,35 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E15" s="3">
         <v>1700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1500</v>
       </c>
-      <c r="G15" s="3">
-        <v>3100</v>
-      </c>
       <c r="H15" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I15" s="3">
         <v>7300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>3800</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1003,8 +1026,11 @@
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1016,32 +1042,33 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>365000</v>
+      </c>
+      <c r="E17" s="3">
         <v>276800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>404200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>358200</v>
       </c>
-      <c r="G17" s="3">
-        <v>661900</v>
-      </c>
       <c r="H17" s="3">
+        <v>663700</v>
+      </c>
+      <c r="I17" s="3">
         <v>962300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>461700</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1054,32 +1081,35 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E18" s="3">
         <v>230200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>117700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>261800</v>
       </c>
-      <c r="G18" s="3">
-        <v>174600</v>
-      </c>
       <c r="H18" s="3">
+        <v>173800</v>
+      </c>
+      <c r="I18" s="3">
         <v>61200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-39300</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1092,8 +1122,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1108,8 +1141,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1131,8 +1165,8 @@
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1146,32 +1180,35 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E21" s="3">
         <v>231800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>120600</v>
       </c>
-      <c r="F21" s="3">
-        <v>263300</v>
-      </c>
       <c r="G21" s="3">
-        <v>177800</v>
+        <v>262800</v>
       </c>
       <c r="H21" s="3">
+        <v>177600</v>
+      </c>
+      <c r="I21" s="3">
         <v>68600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-35900</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1184,32 +1221,35 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E22" s="3">
         <v>16500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>17200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>15500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>27400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>55400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>23100</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1222,32 +1262,35 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E23" s="3">
         <v>213600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>100500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>246300</v>
       </c>
-      <c r="G23" s="3">
-        <v>147200</v>
-      </c>
       <c r="H23" s="3">
+        <v>146500</v>
+      </c>
+      <c r="I23" s="3">
         <v>5800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-62400</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1260,32 +1303,35 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E24" s="3">
         <v>53000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>22800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>64200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>36500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-15400</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1298,8 +1344,11 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1336,32 +1385,35 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E26" s="3">
         <v>160600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>77700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>182100</v>
       </c>
-      <c r="G26" s="3">
-        <v>110800</v>
-      </c>
       <c r="H26" s="3">
+        <v>110000</v>
+      </c>
+      <c r="I26" s="3">
         <v>5600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-47000</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1374,32 +1426,35 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E27" s="3">
         <v>160600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>77700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>182100</v>
       </c>
-      <c r="G27" s="3">
-        <v>110800</v>
-      </c>
       <c r="H27" s="3">
+        <v>110000</v>
+      </c>
+      <c r="I27" s="3">
         <v>5600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-47000</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1412,8 +1467,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1450,8 +1508,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1488,8 +1549,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1526,8 +1590,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1564,8 +1631,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1587,8 +1657,8 @@
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1602,32 +1672,35 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E33" s="3">
         <v>160600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>77700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>182100</v>
       </c>
-      <c r="G33" s="3">
-        <v>110800</v>
-      </c>
       <c r="H33" s="3">
+        <v>110000</v>
+      </c>
+      <c r="I33" s="3">
         <v>5600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-47000</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1640,8 +1713,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1678,32 +1754,35 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E35" s="3">
         <v>160600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>77700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>182100</v>
       </c>
-      <c r="G35" s="3">
-        <v>110800</v>
-      </c>
       <c r="H35" s="3">
+        <v>110000</v>
+      </c>
+      <c r="I35" s="3">
         <v>5600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-47000</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,37 +1795,40 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1759,8 +1841,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1775,8 +1860,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1791,26 +1877,27 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>322000</v>
+      </c>
+      <c r="E41" s="3">
         <v>315500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>334600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>247300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>144900</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1829,8 +1916,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1867,26 +1957,29 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E43" s="3">
         <v>38200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>44900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>34800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>27600</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1905,8 +1998,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1943,26 +2039,29 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E45" s="3">
         <v>15800</v>
-      </c>
-      <c r="E45" s="3">
-        <v>16700</v>
       </c>
       <c r="F45" s="3">
         <v>16700</v>
       </c>
       <c r="G45" s="3">
+        <v>16700</v>
+      </c>
+      <c r="H45" s="3">
         <v>15200</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1981,8 +2080,11 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2019,26 +2121,29 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2154100</v>
+      </c>
+      <c r="E47" s="3">
         <v>2346000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2368900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2239200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1982600</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2057,26 +2162,29 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>91800</v>
+      </c>
+      <c r="E48" s="3">
         <v>97000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>102300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>12100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>10300</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2095,8 +2203,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2112,8 +2223,8 @@
       <c r="G49" s="3">
         <v>62800</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+      <c r="H49" s="3">
+        <v>62800</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2133,8 +2244,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2171,8 +2285,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2209,8 +2326,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2218,17 +2338,17 @@
         <v>4500</v>
       </c>
       <c r="E52" s="3">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="F52" s="3">
         <v>5000</v>
       </c>
       <c r="G52" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H52" s="3">
         <v>3500</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2247,8 +2367,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2285,26 +2408,29 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4393400</v>
+      </c>
+      <c r="E54" s="3">
         <v>4877900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4818100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4397100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3703000</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2323,8 +2449,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2339,8 +2468,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2355,26 +2485,27 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>45300</v>
+      </c>
+      <c r="E57" s="3">
         <v>43700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>41100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>72200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>36000</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2393,8 +2524,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2431,26 +2565,29 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>166200</v>
+      </c>
+      <c r="E59" s="3">
         <v>195600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>220700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>99700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>106700</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2469,8 +2606,11 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2507,26 +2647,29 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3086300</v>
+      </c>
+      <c r="E61" s="3">
         <v>3478100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3566200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3297000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2830100</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2545,26 +2688,29 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>201600</v>
+      </c>
+      <c r="E62" s="3">
         <v>226700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>178600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>181600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>141600</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2729,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2621,8 +2770,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2659,8 +2811,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2697,26 +2852,29 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3544800</v>
+      </c>
+      <c r="E66" s="3">
         <v>3979700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4082100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3708200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3196200</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2735,8 +2893,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2751,8 +2912,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2789,8 +2951,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2827,8 +2992,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2865,8 +3033,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2903,26 +3074,29 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>825500</v>
+      </c>
+      <c r="E72" s="3">
         <v>878000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>717400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>666800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>484700</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2941,8 +3115,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2979,8 +3156,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3017,8 +3197,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3055,26 +3238,29 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>848600</v>
+      </c>
+      <c r="E76" s="3">
         <v>898200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>736000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>688900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>506800</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3093,8 +3279,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3131,37 +3320,40 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3174,32 +3366,35 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E81" s="3">
         <v>160600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>77700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>182100</v>
       </c>
-      <c r="G81" s="3">
-        <v>110800</v>
-      </c>
       <c r="H81" s="3">
+        <v>110000</v>
+      </c>
+      <c r="I81" s="3">
         <v>5600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-47000</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3212,8 +3407,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3228,32 +3426,33 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E83" s="3">
         <v>1700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2800</v>
       </c>
-      <c r="F83" s="3">
-        <v>1500</v>
-      </c>
       <c r="G83" s="3">
-        <v>3100</v>
+        <v>1000</v>
       </c>
       <c r="H83" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I83" s="3">
         <v>7300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3400</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3266,8 +3465,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3304,8 +3506,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3342,8 +3547,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3380,8 +3588,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3418,8 +3629,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3456,32 +3670,35 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>256500</v>
+      </c>
+      <c r="E89" s="3">
         <v>34300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-50300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-133900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-283800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-424700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-301100</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3494,8 +3711,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3510,32 +3730,33 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3300</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-3700</v>
       </c>
       <c r="H91" s="3">
         <v>-3700</v>
       </c>
       <c r="I91" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="J91" s="3">
         <v>-1500</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3548,8 +3769,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3586,8 +3810,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3624,32 +3851,35 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-15600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-13500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2300</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3662,8 +3892,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3678,8 +3911,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3716,8 +3950,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3754,8 +3991,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3792,8 +4032,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3830,32 +4073,35 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-248700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-53400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>136700</v>
       </c>
-      <c r="F100" s="3">
-        <v>241100</v>
-      </c>
       <c r="G100" s="3">
-        <v>341200</v>
+        <v>241000</v>
       </c>
       <c r="H100" s="3">
+        <v>341300</v>
+      </c>
+      <c r="I100" s="3">
         <v>482200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>317700</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3868,8 +4114,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3906,32 +4155,35 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-19700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>87300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>103800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>41700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>44000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>14300</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3942,6 +4194,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GHLD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GHLD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="92">
   <si>
     <t>GHLD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,55 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -725,35 +726,38 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>463800</v>
+      </c>
+      <c r="E8" s="3">
         <v>393100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>507000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>521900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>620000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>837500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1023500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>422400</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -766,8 +770,11 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -807,8 +814,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,8 +858,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,8 +878,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -906,8 +920,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,8 +964,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -988,35 +1008,38 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E15" s="3">
         <v>1600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2800</v>
       </c>
-      <c r="G15" s="3">
-        <v>1500</v>
-      </c>
       <c r="H15" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I15" s="3">
         <v>3700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>7300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3800</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1029,8 +1052,11 @@
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1043,35 +1069,36 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>351000</v>
+      </c>
+      <c r="E17" s="3">
         <v>365000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>276800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>404200</v>
       </c>
-      <c r="G17" s="3">
-        <v>358200</v>
-      </c>
       <c r="H17" s="3">
+        <v>358500</v>
+      </c>
+      <c r="I17" s="3">
         <v>663700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>962300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>461700</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1084,35 +1111,38 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>112800</v>
+      </c>
+      <c r="E18" s="3">
         <v>28100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>230200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>117700</v>
       </c>
-      <c r="G18" s="3">
-        <v>261800</v>
-      </c>
       <c r="H18" s="3">
+        <v>261500</v>
+      </c>
+      <c r="I18" s="3">
         <v>173800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>61200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-39300</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1125,8 +1155,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,8 +1175,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1168,8 +1202,8 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
@@ -1183,35 +1217,38 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>116900</v>
+      </c>
+      <c r="E21" s="3">
         <v>29700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>231800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>120600</v>
       </c>
-      <c r="G21" s="3">
-        <v>262800</v>
-      </c>
       <c r="H21" s="3">
+        <v>262500</v>
+      </c>
+      <c r="I21" s="3">
         <v>177600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>68600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-35900</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,35 +1261,38 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E22" s="3">
         <v>14200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>16500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>17200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>15500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>27400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>55400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>23100</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1265,35 +1305,38 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>97500</v>
+      </c>
+      <c r="E23" s="3">
         <v>13900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>213600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>100500</v>
       </c>
-      <c r="G23" s="3">
-        <v>246300</v>
-      </c>
       <c r="H23" s="3">
+        <v>246000</v>
+      </c>
+      <c r="I23" s="3">
         <v>146500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-62400</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1306,35 +1349,38 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E24" s="3">
         <v>5000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>53000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>22800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>64200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>36500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-15400</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1347,8 +1393,11 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,35 +1437,38 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>72100</v>
+      </c>
+      <c r="E26" s="3">
         <v>8900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>160600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>77700</v>
       </c>
-      <c r="G26" s="3">
-        <v>182100</v>
-      </c>
       <c r="H26" s="3">
+        <v>181800</v>
+      </c>
+      <c r="I26" s="3">
         <v>110000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-47000</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1429,35 +1481,38 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>72100</v>
+      </c>
+      <c r="E27" s="3">
         <v>8900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>160600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>77700</v>
       </c>
-      <c r="G27" s="3">
-        <v>182100</v>
-      </c>
       <c r="H27" s="3">
+        <v>181800</v>
+      </c>
+      <c r="I27" s="3">
         <v>110000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-47000</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1470,8 +1525,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1569,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1552,8 +1613,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1593,8 +1657,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1634,8 +1701,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1660,8 +1730,8 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
@@ -1675,35 +1745,38 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>72100</v>
+      </c>
+      <c r="E33" s="3">
         <v>8900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>160600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>77700</v>
       </c>
-      <c r="G33" s="3">
-        <v>182100</v>
-      </c>
       <c r="H33" s="3">
+        <v>181800</v>
+      </c>
+      <c r="I33" s="3">
         <v>110000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-47000</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,8 +1789,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1757,35 +1833,38 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>72100</v>
+      </c>
+      <c r="E35" s="3">
         <v>8900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>160600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>77700</v>
       </c>
-      <c r="G35" s="3">
-        <v>182100</v>
-      </c>
       <c r="H35" s="3">
+        <v>181800</v>
+      </c>
+      <c r="I35" s="3">
         <v>110000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-47000</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1798,40 +1877,43 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1844,8 +1926,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1861,8 +1946,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,29 +1964,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>302900</v>
+      </c>
+      <c r="E41" s="3">
         <v>322000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>315500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>334600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>247300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>144900</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1919,8 +2006,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1960,29 +2050,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>52200</v>
+      </c>
+      <c r="E43" s="3">
         <v>41300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>38200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>44900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>34800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>27600</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2001,8 +2094,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2042,29 +2138,32 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E45" s="3">
         <v>15400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15800</v>
-      </c>
-      <c r="F45" s="3">
-        <v>16700</v>
       </c>
       <c r="G45" s="3">
         <v>16700</v>
       </c>
       <c r="H45" s="3">
+        <v>16700</v>
+      </c>
+      <c r="I45" s="3">
         <v>15200</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2083,8 +2182,11 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2124,29 +2226,32 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2149100</v>
+      </c>
+      <c r="E47" s="3">
         <v>2154100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2346000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2368900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2239200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1982600</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2165,29 +2270,32 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>104100</v>
+      </c>
+      <c r="E48" s="3">
         <v>91800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>97000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>102300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>12100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>10300</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2206,13 +2314,16 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>62800</v>
+        <v>218200</v>
       </c>
       <c r="E49" s="3">
         <v>62800</v>
@@ -2226,8 +2337,8 @@
       <c r="H49" s="3">
         <v>62800</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+      <c r="I49" s="3">
+        <v>62800</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2247,8 +2358,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2288,8 +2402,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2329,29 +2446,32 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="E52" s="3">
         <v>4500</v>
       </c>
       <c r="F52" s="3">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="G52" s="3">
         <v>5000</v>
       </c>
       <c r="H52" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I52" s="3">
         <v>3500</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,8 +2490,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2411,29 +2534,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4484300</v>
+      </c>
+      <c r="E54" s="3">
         <v>4393400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4877900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4818100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4397100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3703000</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2452,8 +2578,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2469,8 +2598,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2486,29 +2616,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E57" s="3">
         <v>45300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>43700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>41100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>72200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>36000</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,8 +2658,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2568,29 +2702,32 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>179500</v>
+      </c>
+      <c r="E59" s="3">
         <v>166200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>195600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>220700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>99700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>106700</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2609,8 +2746,11 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2650,29 +2790,32 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2986700</v>
+      </c>
+      <c r="E61" s="3">
         <v>3086300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3478100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3566200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3297000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2830100</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2691,29 +2834,32 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>215600</v>
+      </c>
+      <c r="E62" s="3">
         <v>201600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>226700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>178600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>181600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>141600</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2732,8 +2878,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2773,8 +2922,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2814,8 +2966,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2855,29 +3010,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3546800</v>
+      </c>
+      <c r="E66" s="3">
         <v>3544800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3979700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4082100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3708200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3196200</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2896,8 +3054,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2913,8 +3074,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2954,8 +3116,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2995,8 +3160,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3036,8 +3204,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3077,29 +3248,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>897600</v>
+      </c>
+      <c r="E72" s="3">
         <v>825500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>878000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>717400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>666800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>484700</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3118,8 +3292,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3159,8 +3336,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3200,8 +3380,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3241,29 +3424,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>937500</v>
+      </c>
+      <c r="E76" s="3">
         <v>848600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>898200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>736000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>688900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>506800</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3282,8 +3468,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3323,40 +3512,43 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3369,35 +3561,38 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>72100</v>
+      </c>
+      <c r="E81" s="3">
         <v>8900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>160600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>77700</v>
       </c>
-      <c r="G81" s="3">
-        <v>182100</v>
-      </c>
       <c r="H81" s="3">
+        <v>181800</v>
+      </c>
+      <c r="I81" s="3">
         <v>110000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-47000</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3410,8 +3605,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3427,35 +3625,36 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E83" s="3">
         <v>1600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3400</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3468,8 +3667,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3509,8 +3711,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3550,8 +3755,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3591,8 +3799,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3632,8 +3843,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3673,35 +3887,38 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>478400</v>
+      </c>
+      <c r="E89" s="3">
         <v>256500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>34300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-50300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-133900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-283800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-424700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-301100</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3714,8 +3931,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3731,35 +3951,36 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3300</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-3700</v>
       </c>
       <c r="I91" s="3">
         <v>-3700</v>
       </c>
       <c r="J91" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1500</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3772,8 +3993,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3813,8 +4037,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3854,35 +4081,38 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-88300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-15600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-13500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2300</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3895,8 +4125,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3912,8 +4145,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3953,8 +4187,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3994,8 +4231,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4035,8 +4275,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4076,35 +4319,38 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-407700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-248700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-53400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>136700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>241000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>341300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>482200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>317700</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4117,8 +4363,11 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4158,35 +4407,38 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="E102" s="3">
         <v>6600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-19700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>87300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>103800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>41700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>44000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>14300</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4197,6 +4449,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GHLD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GHLD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="92">
   <si>
     <t>GHLD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,62 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -729,41 +730,47 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>311300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>375600</v>
+      </c>
+      <c r="F8" s="3">
         <v>463800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>393100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>507000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>521900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>620000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>837500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1023500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>422400</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
@@ -773,8 +780,14 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -817,8 +830,14 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -861,8 +880,14 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -879,8 +904,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -923,8 +950,14 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -967,8 +1000,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1011,41 +1050,47 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E15" s="3">
         <v>4100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G15" s="3">
         <v>1600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>1700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>2800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>1800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>3700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>7300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>3800</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1055,8 +1100,14 @@
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1070,41 +1121,43 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>298100</v>
+      </c>
+      <c r="F17" s="3">
         <v>351000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>365000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>276800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>404200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>358500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>663700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>962300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>461700</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1114,41 +1167,47 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>292300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>77500</v>
+      </c>
+      <c r="F18" s="3">
         <v>112800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>28100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>230200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>117700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>261500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>173800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>61200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-39300</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1158,8 +1217,14 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1176,8 +1241,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1205,11 +1272,11 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
@@ -1220,41 +1287,47 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>296200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>81600</v>
+      </c>
+      <c r="F21" s="3">
         <v>116900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>29700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>231800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>120600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>262500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>177600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>68600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-35900</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1264,41 +1337,47 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>15600</v>
+      </c>
+      <c r="F22" s="3">
         <v>15300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>14200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>16500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>17200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>15500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>27400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>55400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>23100</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1308,41 +1387,47 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>278200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>61900</v>
+      </c>
+      <c r="F23" s="3">
         <v>97500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>13900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>213600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>100500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>246000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>146500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>5800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-62400</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1352,41 +1437,47 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>70200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>19800</v>
+      </c>
+      <c r="F24" s="3">
         <v>25400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>5000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>53000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>22800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>64200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>36500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-15400</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1396,8 +1487,14 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1440,41 +1537,47 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>208000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>42100</v>
+      </c>
+      <c r="F26" s="3">
         <v>72100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>8900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>160600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>77700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>181800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>110000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>5600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-47000</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1484,41 +1587,47 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>208000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>42100</v>
+      </c>
+      <c r="F27" s="3">
         <v>72100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>8900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>160600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>77700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>181800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>110000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>5600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-47000</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1528,8 +1637,14 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1572,8 +1687,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1616,8 +1737,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1660,8 +1787,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1704,8 +1837,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1733,11 +1872,11 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
@@ -1748,41 +1887,47 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>208000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>42100</v>
+      </c>
+      <c r="F33" s="3">
         <v>72100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>8900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>160600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>77700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>181800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>110000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>5600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-47000</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1792,8 +1937,14 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1836,41 +1987,47 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>208000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>42100</v>
+      </c>
+      <c r="F35" s="3">
         <v>72100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>8900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>160600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>77700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>181800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>110000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>5600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-47000</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,46 +2037,52 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1929,8 +2092,14 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1947,8 +2116,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1965,35 +2136,37 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>244000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>243100</v>
+      </c>
+      <c r="F41" s="3">
         <v>302900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>322000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>315500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>334600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>247300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>144900</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2009,8 +2182,14 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2053,35 +2232,41 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>68400</v>
+      </c>
+      <c r="F43" s="3">
         <v>52200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>41300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>38200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>44900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>34800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>27600</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2097,8 +2282,14 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2141,35 +2332,41 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>32800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>32900</v>
+      </c>
+      <c r="F45" s="3">
         <v>19700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>15400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>15800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>16700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>16700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>15200</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2185,8 +2382,14 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2229,35 +2432,41 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1321400</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2243600</v>
+      </c>
+      <c r="F47" s="3">
         <v>2149100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>2154100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>2346000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>2368900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>2239200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>1982600</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2273,35 +2482,41 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>97700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>102300</v>
+      </c>
+      <c r="F48" s="3">
         <v>104100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>91800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>97000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>102300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>12100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>10300</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2317,19 +2532,25 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>212500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>216200</v>
+      </c>
+      <c r="F49" s="3">
         <v>218200</v>
-      </c>
-      <c r="E49" s="3">
-        <v>62800</v>
-      </c>
-      <c r="F49" s="3">
-        <v>62800</v>
       </c>
       <c r="G49" s="3">
         <v>62800</v>
@@ -2340,11 +2561,11 @@
       <c r="I49" s="3">
         <v>62800</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
+      <c r="J49" s="3">
+        <v>62800</v>
+      </c>
+      <c r="K49" s="3">
+        <v>62800</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
@@ -2361,8 +2582,14 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2405,8 +2632,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2449,35 +2682,41 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F52" s="3">
         <v>6000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>4500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>4500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>5000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>5000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>3500</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2493,8 +2732,14 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2537,35 +2782,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3633500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4383200</v>
+      </c>
+      <c r="F54" s="3">
         <v>4484300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>4393400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>4877900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>4818100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4397100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3703000</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2581,8 +2832,14 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2599,8 +2856,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2617,35 +2876,37 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>51300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>56800</v>
+      </c>
+      <c r="F57" s="3">
         <v>66000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>45300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>43700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>41100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>72200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>36000</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2661,8 +2922,14 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2705,35 +2972,41 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>143700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>172900</v>
+      </c>
+      <c r="F59" s="3">
         <v>179500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>166200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>195600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>220700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>99700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>106700</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2749,8 +3022,14 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2793,35 +3072,41 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1945800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2907000</v>
+      </c>
+      <c r="F61" s="3">
         <v>2986700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>3086300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>3478100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>3566200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>3297000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>2830100</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2837,35 +3122,41 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>311400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>243800</v>
+      </c>
+      <c r="F62" s="3">
         <v>215600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>201600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>226700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>178600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>181600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>141600</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2881,8 +3172,14 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2925,8 +3222,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2969,8 +3272,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3013,35 +3322,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2504300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3463200</v>
+      </c>
+      <c r="F66" s="3">
         <v>3546800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3544800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3979700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4082100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3708200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3196200</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3057,8 +3372,14 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3075,8 +3396,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3119,8 +3442,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3163,8 +3492,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3207,8 +3542,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3251,35 +3592,41 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1085200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>877200</v>
+      </c>
+      <c r="F72" s="3">
         <v>897600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>825500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>878000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>717400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>666800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>484700</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3295,8 +3642,14 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3339,8 +3692,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3383,8 +3742,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3427,35 +3792,41 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1129200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>920000</v>
+      </c>
+      <c r="F76" s="3">
         <v>937500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>848600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>898200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>736000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>688900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>506800</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3842,14 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3515,46 +3892,52 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3564,41 +3947,47 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>208000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>42100</v>
+      </c>
+      <c r="F81" s="3">
         <v>72100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>8900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>160600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>77700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>181800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>110000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>5600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-47000</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3608,8 +3997,14 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3626,41 +4021,43 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E83" s="3">
         <v>4100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G83" s="3">
         <v>1600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>1700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>2800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>1000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>3700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>7300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>3400</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3670,8 +4067,14 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3714,8 +4117,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3758,8 +4167,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3802,8 +4217,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3846,8 +4267,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3890,41 +4317,47 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>871700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-88900</v>
+      </c>
+      <c r="F89" s="3">
         <v>478400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>256500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>34300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-50300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-133900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-283800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-424700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-301100</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3934,8 +4367,14 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3952,41 +4391,43 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-3300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-3700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-3700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1500</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3996,8 +4437,14 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4040,8 +4487,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4084,41 +4537,47 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-88300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>1000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-3300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-15600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-13500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-2300</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4128,8 +4587,14 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4146,8 +4611,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4155,13 +4622,13 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-61100</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-60000</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -4190,8 +4657,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4234,8 +4707,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4278,8 +4757,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4322,41 +4807,47 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-868500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>42400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-407700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-248700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-53400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>136700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>241000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>341300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>482200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>317700</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4366,8 +4857,14 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4410,41 +4907,47 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-60800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-17600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>6600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-19700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>87300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>103800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>41700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>44000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>14300</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4452,6 +4955,12 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GHLD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GHLD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="92">
   <si>
     <t>GHLD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,66 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -736,44 +737,47 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>277400</v>
+      </c>
+      <c r="E8" s="3">
         <v>311300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>375600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>463800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>393100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>507000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>521900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>620000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>837500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1023500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>422400</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
@@ -786,8 +790,11 @@
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -836,8 +843,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -886,8 +896,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -906,8 +919,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -956,8 +970,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1006,8 +1023,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1056,44 +1076,47 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E15" s="3">
         <v>3900</v>
-      </c>
-      <c r="E15" s="3">
-        <v>4100</v>
       </c>
       <c r="F15" s="3">
         <v>4100</v>
       </c>
       <c r="G15" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H15" s="3">
         <v>1600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>2800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>7300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3800</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1106,8 +1129,11 @@
       <c r="R15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1123,44 +1149,45 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>188100</v>
+      </c>
+      <c r="E17" s="3">
         <v>19000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>298100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>351000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>365000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>276800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>404200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>358500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>663700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>962300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>461700</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1173,44 +1200,47 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>89300</v>
+      </c>
+      <c r="E18" s="3">
         <v>292300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>77500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>112800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>28100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>230200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>117700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>261500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>173800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>61200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-39300</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1223,8 +1253,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1243,8 +1276,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1278,8 +1312,8 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
@@ -1293,44 +1327,47 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>93200</v>
+      </c>
+      <c r="E21" s="3">
         <v>296200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>81600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>116900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>29700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>231800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>120600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>262500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>177600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>68600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-35900</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1343,44 +1380,47 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E22" s="3">
         <v>14100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>15600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>15300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>14200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>16500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>17200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>15500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>27400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>55400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>23100</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1393,44 +1433,47 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>78400</v>
+      </c>
+      <c r="E23" s="3">
         <v>278200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>61900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>97500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>13900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>213600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>100500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>246000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>146500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-62400</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1443,44 +1486,47 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E24" s="3">
         <v>70200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>19800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>25400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>53000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>22800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>64200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>36500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-15400</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1493,8 +1539,11 @@
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1543,44 +1592,47 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>58300</v>
+      </c>
+      <c r="E26" s="3">
         <v>208000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>42100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>72100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>160600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>77700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>181800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>110000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-47000</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1593,44 +1645,47 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>58300</v>
+      </c>
+      <c r="E27" s="3">
         <v>208000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>42100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>72100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>8900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>160600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>77700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>181800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>110000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-47000</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1643,8 +1698,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1693,8 +1751,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1743,8 +1804,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1793,8 +1857,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1843,8 +1910,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1878,8 +1948,8 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
@@ -1893,44 +1963,47 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>58300</v>
+      </c>
+      <c r="E33" s="3">
         <v>208000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>42100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>72100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>8900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>160600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>77700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>181800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>110000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-47000</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1943,8 +2016,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1993,44 +2069,47 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>58300</v>
+      </c>
+      <c r="E35" s="3">
         <v>208000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>42100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>72100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>8900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>160600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>77700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>181800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>110000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-47000</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2043,49 +2122,52 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2180,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2118,8 +2203,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2138,38 +2224,39 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>249000</v>
+      </c>
+      <c r="E41" s="3">
         <v>244000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>243100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>302900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>322000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>315500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>334600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>247300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>144900</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,8 +2275,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2238,38 +2328,41 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E43" s="3">
         <v>34500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>68400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>52200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>41300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>38200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>44900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>34800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>27600</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,8 +2381,11 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2338,38 +2434,41 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E45" s="3">
         <v>32800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>32900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>19700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>15400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15800</v>
-      </c>
-      <c r="I45" s="3">
-        <v>16700</v>
       </c>
       <c r="J45" s="3">
         <v>16700</v>
       </c>
       <c r="K45" s="3">
+        <v>16700</v>
+      </c>
+      <c r="L45" s="3">
         <v>15200</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2388,8 +2487,11 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2438,38 +2540,41 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1283900</v>
+      </c>
+      <c r="E47" s="3">
         <v>1321400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2243600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2149100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2154100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2346000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2368900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2239200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1982600</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2488,38 +2593,41 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E48" s="3">
         <v>97700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>102300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>104100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>91800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>97000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>102300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>12100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10300</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2538,22 +2646,25 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>210500</v>
+      </c>
+      <c r="E49" s="3">
         <v>212500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>216200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>218200</v>
-      </c>
-      <c r="G49" s="3">
-        <v>62800</v>
       </c>
       <c r="H49" s="3">
         <v>62800</v>
@@ -2567,8 +2678,8 @@
       <c r="K49" s="3">
         <v>62800</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
+      <c r="L49" s="3">
+        <v>62800</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
@@ -2588,8 +2699,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2638,8 +2752,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2688,38 +2805,41 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E52" s="3">
         <v>6300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6000</v>
-      </c>
-      <c r="G52" s="3">
-        <v>4500</v>
       </c>
       <c r="H52" s="3">
         <v>4500</v>
       </c>
       <c r="I52" s="3">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="J52" s="3">
         <v>5000</v>
       </c>
       <c r="K52" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L52" s="3">
         <v>3500</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2738,8 +2858,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2788,38 +2911,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3601000</v>
+      </c>
+      <c r="E54" s="3">
         <v>3633500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4383200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4484300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4393400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4877900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4818100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4397100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3703000</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2838,8 +2964,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2858,8 +2987,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2878,38 +3008,39 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E57" s="3">
         <v>51300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>56800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>66000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>45300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>43700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>41100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>72200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>36000</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2928,8 +3059,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2978,38 +3112,41 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>138000</v>
+      </c>
+      <c r="E59" s="3">
         <v>143700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>172900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>179500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>166200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>195600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>220700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>99700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>106700</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3028,8 +3165,11 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3078,38 +3218,41 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1883900</v>
+      </c>
+      <c r="E61" s="3">
         <v>1945800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2907000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2986700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3086300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3478100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3566200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3297000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2830100</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3128,38 +3271,41 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>322500</v>
+      </c>
+      <c r="E62" s="3">
         <v>311400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>243800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>215600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>201600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>226700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>178600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>181600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>141600</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,8 +3324,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3228,8 +3377,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3278,8 +3430,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3328,38 +3483,41 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2413200</v>
+      </c>
+      <c r="E66" s="3">
         <v>2504300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3463200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3546800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3544800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3979700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4082100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3708200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3196200</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3378,8 +3536,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3398,8 +3559,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3448,8 +3610,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3498,8 +3663,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3548,8 +3716,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3598,38 +3769,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1143500</v>
+      </c>
+      <c r="E72" s="3">
         <v>1085200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>877200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>897600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>825500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>878000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>717400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>666800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>484700</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3648,8 +3822,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3698,8 +3875,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3748,8 +3928,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3798,38 +3981,41 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1187800</v>
+      </c>
+      <c r="E76" s="3">
         <v>1129200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>920000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>937500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>848600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>898200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>736000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>688900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>506800</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3848,8 +4034,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3898,49 +4087,52 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3953,44 +4145,47 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>58300</v>
+      </c>
+      <c r="E81" s="3">
         <v>208000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>42100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>72100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>8900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>160600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>77700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>181800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>110000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-47000</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4003,8 +4198,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4023,44 +4221,45 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E83" s="3">
         <v>3900</v>
-      </c>
-      <c r="E83" s="3">
-        <v>4100</v>
       </c>
       <c r="F83" s="3">
         <v>4100</v>
       </c>
       <c r="G83" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H83" s="3">
         <v>1600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3400</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4073,8 +4272,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4123,8 +4325,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4173,8 +4378,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4223,8 +4431,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4273,8 +4484,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4323,44 +4537,47 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>57700</v>
+      </c>
+      <c r="E89" s="3">
         <v>871700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-88900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>478400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>256500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>34300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-50300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-133900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-283800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-424700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-301100</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4373,8 +4590,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4393,44 +4613,45 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3300</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-3700</v>
       </c>
       <c r="L91" s="3">
         <v>-3700</v>
       </c>
       <c r="M91" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="N91" s="3">
         <v>-1500</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4443,8 +4664,11 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4493,8 +4717,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4543,44 +4770,47 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-14400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-88300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-15600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-13500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2300</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4593,8 +4823,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4613,8 +4846,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4622,17 +4856,17 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-61100</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-60000</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -4663,8 +4897,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4713,8 +4950,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4763,8 +5003,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4813,44 +5056,47 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-52100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-868500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>42400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-407700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-248700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-53400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>136700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>241000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>341300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>482200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>317700</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4863,8 +5109,11 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4913,44 +5162,47 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E102" s="3">
         <v>2200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-60800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-17600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>6600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-19700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>87300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>103800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>41700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>44000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>14300</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4961,6 +5213,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GHLD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GHLD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="92">
   <si>
     <t>GHLD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,69 +665,70 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
@@ -740,47 +741,50 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>230800</v>
+      </c>
+      <c r="E8" s="3">
         <v>277400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>311300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>375600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>463800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>393100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>507000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>521900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>620000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>837500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1023500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>422400</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
@@ -793,8 +797,11 @@
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -846,8 +853,11 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -899,8 +909,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -920,8 +933,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -973,8 +987,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1026,8 +1043,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1079,47 +1099,50 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E15" s="3">
         <v>3800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>3900</v>
-      </c>
-      <c r="F15" s="3">
-        <v>4100</v>
       </c>
       <c r="G15" s="3">
         <v>4100</v>
       </c>
       <c r="H15" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I15" s="3">
         <v>1600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>2800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>7300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3800</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1132,8 +1155,11 @@
       <c r="S15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1150,47 +1176,48 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>132800</v>
+      </c>
+      <c r="E17" s="3">
         <v>188100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>19000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>298100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>351000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>365000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>276800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>404200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>358500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>663700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>962300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>461700</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1203,47 +1230,50 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>98000</v>
+      </c>
+      <c r="E18" s="3">
         <v>89300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>292300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>77500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>112800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>28100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>230200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>117700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>261500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>173800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>61200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-39300</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1256,8 +1286,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1277,8 +1310,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1315,8 +1349,8 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
@@ -1330,47 +1364,50 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>101900</v>
+      </c>
+      <c r="E21" s="3">
         <v>93200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>296200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>81600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>116900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>29700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>231800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>120600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>262500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>177600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>68600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-35900</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1383,47 +1420,50 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E22" s="3">
         <v>10900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>14100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>15600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>15300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>14200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>16500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>17200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>15500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>27400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>55400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>23100</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1436,47 +1476,50 @@
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>86700</v>
+      </c>
+      <c r="E23" s="3">
         <v>78400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>278200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>61900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>97500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>13900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>213600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>100500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>246000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>146500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-62400</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1489,47 +1532,50 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E24" s="3">
         <v>20100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>70200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>19800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>25400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>53000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>22800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>64200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>36500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-15400</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1542,8 +1588,11 @@
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1595,47 +1644,50 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>77400</v>
+      </c>
+      <c r="E26" s="3">
         <v>58300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>208000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>42100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>72100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>160600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>77700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>181800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>110000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-47000</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1648,47 +1700,50 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>77400</v>
+      </c>
+      <c r="E27" s="3">
         <v>58300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>208000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>42100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>72100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>8900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>160600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>77700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>181800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>110000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-47000</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1701,8 +1756,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1754,8 +1812,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1807,8 +1868,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1860,8 +1924,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1913,8 +1980,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1951,8 +2021,8 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
@@ -1966,47 +2036,50 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>77400</v>
+      </c>
+      <c r="E33" s="3">
         <v>58300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>208000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>42100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>72100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>8900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>160600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>77700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>181800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>110000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-47000</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,8 +2092,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2072,47 +2148,50 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>77400</v>
+      </c>
+      <c r="E35" s="3">
         <v>58300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>208000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>42100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>72100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>8900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>160600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>77700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>181800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>110000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-47000</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,52 +2204,55 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2183,8 +2265,11 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2204,8 +2289,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2225,41 +2311,42 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>162200</v>
+      </c>
+      <c r="E41" s="3">
         <v>249000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>244000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>243100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>302900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>322000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>315500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>334600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>247300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>144900</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2278,8 +2365,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2331,41 +2421,44 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E43" s="3">
         <v>23500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>34500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>68400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>52200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>41300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>38200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>44900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>34800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>27600</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2384,8 +2477,11 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2437,41 +2533,44 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E45" s="3">
         <v>26900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>32800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>32900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>19700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>15800</v>
-      </c>
-      <c r="J45" s="3">
-        <v>16700</v>
       </c>
       <c r="K45" s="3">
         <v>16700</v>
       </c>
       <c r="L45" s="3">
+        <v>16700</v>
+      </c>
+      <c r="M45" s="3">
         <v>15200</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2490,8 +2589,11 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2543,41 +2645,44 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>965700</v>
+      </c>
+      <c r="E47" s="3">
         <v>1283900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1321400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2243600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2149100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2154100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2346000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2368900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2239200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1982600</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2596,41 +2701,44 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>88900</v>
+      </c>
+      <c r="E48" s="3">
         <v>94000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>97700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>102300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>104100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>91800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>97000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>102300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10300</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,25 +2757,28 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>208500</v>
+      </c>
+      <c r="E49" s="3">
         <v>210500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>212500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>216200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>218200</v>
-      </c>
-      <c r="H49" s="3">
-        <v>62800</v>
       </c>
       <c r="I49" s="3">
         <v>62800</v>
@@ -2681,8 +2792,8 @@
       <c r="L49" s="3">
         <v>62800</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
+      <c r="M49" s="3">
+        <v>62800</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
@@ -2702,8 +2813,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2755,8 +2869,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2808,41 +2925,44 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E52" s="3">
         <v>5600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6000</v>
-      </c>
-      <c r="H52" s="3">
-        <v>4500</v>
       </c>
       <c r="I52" s="3">
         <v>4500</v>
       </c>
       <c r="J52" s="3">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="K52" s="3">
         <v>5000</v>
       </c>
       <c r="L52" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M52" s="3">
         <v>3500</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2861,8 +2981,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2914,41 +3037,44 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3344100</v>
+      </c>
+      <c r="E54" s="3">
         <v>3601000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3633500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4383200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4484300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4393400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4877900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4818100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4397100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3703000</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2967,8 +3093,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2988,8 +3117,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3009,41 +3139,42 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>40900</v>
+      </c>
+      <c r="E57" s="3">
         <v>44500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>51300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>56800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>66000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>45300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>43700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>41100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>72200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>36000</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3062,8 +3193,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3115,41 +3249,44 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>122800</v>
+      </c>
+      <c r="E59" s="3">
         <v>138000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>143700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>172900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>179500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>166200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>195600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>220700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>99700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>106700</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3168,8 +3305,11 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3221,41 +3361,44 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1540400</v>
+      </c>
+      <c r="E61" s="3">
         <v>1883900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1945800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2907000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2986700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3086300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3478100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3566200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3297000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2830100</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3274,41 +3417,44 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>333700</v>
+      </c>
+      <c r="E62" s="3">
         <v>322500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>311400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>243800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>215600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>201600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>226700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>178600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>181600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>141600</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3327,8 +3473,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3380,8 +3529,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3433,8 +3585,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3486,41 +3641,44 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2078600</v>
+      </c>
+      <c r="E66" s="3">
         <v>2413200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2504300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3463200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3546800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3544800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3979700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4082100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3708200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3196200</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3539,8 +3697,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3560,8 +3721,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3613,8 +3775,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3666,8 +3831,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3719,8 +3887,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3772,41 +3943,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1220900</v>
+      </c>
+      <c r="E72" s="3">
         <v>1143500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1085200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>877200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>897600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>825500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>878000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>717400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>666800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>484700</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3825,8 +3999,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3878,8 +4055,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3931,8 +4111,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3984,41 +4167,44 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1265500</v>
+      </c>
+      <c r="E76" s="3">
         <v>1187800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1129200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>920000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>937500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>848600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>898200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>736000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>688900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>506800</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4037,8 +4223,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4090,52 +4279,55 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4148,47 +4340,50 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>77400</v>
+      </c>
+      <c r="E81" s="3">
         <v>58300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>208000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>42100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>72100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>8900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>160600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>77700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>181800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>110000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-47000</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4201,8 +4396,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4222,47 +4420,48 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E83" s="3">
         <v>3800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3900</v>
-      </c>
-      <c r="F83" s="3">
-        <v>4100</v>
       </c>
       <c r="G83" s="3">
         <v>4100</v>
       </c>
       <c r="H83" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I83" s="3">
         <v>1600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3400</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4275,8 +4474,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4328,8 +4530,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4381,8 +4586,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4434,8 +4642,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4487,8 +4698,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4540,47 +4754,50 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>251600</v>
+      </c>
+      <c r="E89" s="3">
         <v>57700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>871700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-88900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>478400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>256500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>34300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-50300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-133900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-283800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-424700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-301100</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4593,8 +4810,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4614,47 +4834,48 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3300</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-3700</v>
       </c>
       <c r="M91" s="3">
         <v>-3700</v>
       </c>
       <c r="N91" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="O91" s="3">
         <v>-1500</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4667,8 +4888,11 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4720,8 +4944,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4773,47 +5000,50 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-14400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-88300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-15600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-13500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2300</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4826,8 +5056,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4847,8 +5080,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4859,17 +5093,17 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-61100</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-60000</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -4900,8 +5134,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4953,8 +5190,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5006,8 +5246,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5059,47 +5302,50 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-335700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-52100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-868500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>42400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-407700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-248700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-53400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>136700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>241000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>341300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>482200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>317700</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5112,8 +5358,11 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5165,47 +5414,50 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-84600</v>
+      </c>
+      <c r="E102" s="3">
         <v>4300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-60800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-17600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>6600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-19700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>87300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>103800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>41700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>44000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>14300</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5216,6 +5468,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GHLD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GHLD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="92">
   <si>
     <t>GHLD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,76 +665,77 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
@@ -744,53 +745,59 @@
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>171000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>177000</v>
+      </c>
+      <c r="F8" s="3">
         <v>230800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>277400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>311300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>375600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>463800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>393100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>507000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>521900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>620000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>837500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1023500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>422400</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
@@ -800,8 +807,14 @@
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -856,8 +869,14 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -912,8 +931,14 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -934,8 +959,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -990,8 +1017,14 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1046,8 +1079,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1102,53 +1141,59 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E15" s="3">
         <v>3900</v>
-      </c>
-      <c r="E15" s="3">
-        <v>3800</v>
       </c>
       <c r="F15" s="3">
         <v>3900</v>
       </c>
       <c r="G15" s="3">
+        <v>3800</v>
+      </c>
+      <c r="H15" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I15" s="3">
         <v>4100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>4100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>1600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>1700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>2800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>1800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>3700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>7300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>3800</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1158,8 +1203,14 @@
       <c r="T15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1177,53 +1228,55 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>209600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>187400</v>
+      </c>
+      <c r="F17" s="3">
         <v>132800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>188100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>19000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>298100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>351000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>365000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>276800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>404200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>358500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>663700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>962300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>461700</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1233,53 +1286,59 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-38600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="F18" s="3">
         <v>98000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>89300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>292300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>77500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>112800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>28100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>230200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>117700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>261500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>173800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>61200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-39300</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1289,8 +1348,14 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1311,8 +1376,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1352,11 +1419,11 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
@@ -1367,53 +1434,59 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-34800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F21" s="3">
         <v>101900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>93200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>296200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>81600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>116900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>29700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>231800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>120600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>262500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>177600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>68600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-35900</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1423,53 +1496,59 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>12800</v>
+      </c>
+      <c r="F22" s="3">
         <v>11300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>10900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>14100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>15600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>15300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>14200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>16500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>17200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>15500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>27400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>55400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>23100</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1479,53 +1558,59 @@
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-50800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="F23" s="3">
         <v>86700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>78400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>278200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>61900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>97500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>13900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>213600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>100500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>246000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>146500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>5800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-62400</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1535,53 +1620,59 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="F24" s="3">
         <v>9300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>20100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>70200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>19800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>25400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>5000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>53000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>22800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>64200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>36500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-15400</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1591,8 +1682,14 @@
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1647,53 +1744,59 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="F26" s="3">
         <v>77400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>58300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>208000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>42100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>72100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>8900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>160600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>77700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>181800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>110000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>5600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-47000</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1703,53 +1806,59 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="F27" s="3">
         <v>77400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>58300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>208000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>42100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>72100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>8900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>160600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>77700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>181800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>110000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>5600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-47000</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1759,8 +1868,14 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1815,8 +1930,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1871,8 +1992,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1927,8 +2054,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1983,8 +2116,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2024,11 +2163,11 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
@@ -2039,53 +2178,59 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="F33" s="3">
         <v>77400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>58300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>208000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>42100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>72100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>8900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>160600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>77700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>181800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>110000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>5600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-47000</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2095,8 +2240,14 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2151,53 +2302,59 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="F35" s="3">
         <v>77400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>58300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>208000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>42100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>72100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>8900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>160600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>77700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>181800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>110000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>5600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-47000</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2207,58 +2364,64 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2268,8 +2431,14 @@
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2290,8 +2459,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2312,47 +2483,49 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>147800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>137900</v>
+      </c>
+      <c r="F41" s="3">
         <v>162200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>249000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>244000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>243100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>302900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>322000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>315500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>334600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>247300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>144900</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2368,8 +2541,14 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2424,47 +2603,53 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>58300</v>
+      </c>
+      <c r="F43" s="3">
         <v>32100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>23500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>34500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>68400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>52200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>41300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>38200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>44900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>34800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>27600</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2480,8 +2665,14 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2536,47 +2727,53 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>31500</v>
+      </c>
+      <c r="F45" s="3">
         <v>30000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>26900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>32800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>32900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>19700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>15400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>15800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>16700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>16700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>15200</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2592,8 +2789,14 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2648,47 +2851,53 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>883100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>872400</v>
+      </c>
+      <c r="F47" s="3">
         <v>965700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>1283900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>1321400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>2243600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>2149100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>2154100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>2346000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>2368900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>2239200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>1982600</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2704,47 +2913,53 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>82500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>86800</v>
+      </c>
+      <c r="F48" s="3">
         <v>88900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>94000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>97700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>102300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>104100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>91800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>97000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>102300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>12100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>10300</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2760,31 +2975,37 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>213200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>209800</v>
+      </c>
+      <c r="F49" s="3">
         <v>208500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>210500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>212500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>216200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>218200</v>
-      </c>
-      <c r="I49" s="3">
-        <v>62800</v>
-      </c>
-      <c r="J49" s="3">
-        <v>62800</v>
       </c>
       <c r="K49" s="3">
         <v>62800</v>
@@ -2795,11 +3016,11 @@
       <c r="M49" s="3">
         <v>62800</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
+      <c r="N49" s="3">
+        <v>62800</v>
+      </c>
+      <c r="O49" s="3">
+        <v>62800</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
@@ -2816,8 +3037,14 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2872,8 +3099,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2928,47 +3161,53 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F52" s="3">
         <v>7800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>5600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>6300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>5000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>6000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>4500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>4500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>5000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>5000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>3500</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2984,8 +3223,14 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3040,47 +3285,53 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3181500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3239600</v>
+      </c>
+      <c r="F54" s="3">
         <v>3344100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>3601000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3633500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>4383200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4484300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>4393400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4877900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4818100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4397100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3703000</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3096,8 +3347,14 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3118,8 +3375,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3140,47 +3399,49 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>36600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>34100</v>
+      </c>
+      <c r="F57" s="3">
         <v>40900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>44500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>51300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>56800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>66000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>45300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>43700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>41100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>72200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>36000</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3196,8 +3457,14 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3252,47 +3519,53 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>107800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>115600</v>
+      </c>
+      <c r="F59" s="3">
         <v>122800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>138000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>143700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>172900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>179500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>166200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>195600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>220700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>99700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>106700</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3308,8 +3581,14 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3364,47 +3643,53 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1484300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1489600</v>
+      </c>
+      <c r="F61" s="3">
         <v>1540400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1883900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1945800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>2907000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2986700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>3086300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>3478100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>3566200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>3297000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2830100</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3420,47 +3705,53 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>312500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>328700</v>
+      </c>
+      <c r="F62" s="3">
         <v>333700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>322500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>311400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>243800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>215600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>201600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>226700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>178600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>181600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>141600</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3476,8 +3767,14 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3532,8 +3829,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3588,8 +3891,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3644,47 +3953,53 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1968300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1990400</v>
+      </c>
+      <c r="F66" s="3">
         <v>2078600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2413200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2504300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3463200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3546800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3544800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3979700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4082100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3708200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3196200</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3700,8 +4015,14 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3722,8 +4043,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3778,8 +4101,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3834,8 +4163,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3890,8 +4225,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3946,47 +4287,53 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1168700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1205900</v>
+      </c>
+      <c r="F72" s="3">
         <v>1220900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>1143500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>1085200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>877200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>897600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>825500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>878000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>717400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>666800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>484700</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4002,8 +4349,14 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4058,8 +4411,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4114,8 +4473,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4170,47 +4535,53 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1213200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1249200</v>
+      </c>
+      <c r="F76" s="3">
         <v>1265500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1187800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1129200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>920000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>937500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>848600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>898200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>736000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>688900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>506800</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4226,8 +4597,14 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4282,58 +4659,64 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4343,53 +4726,59 @@
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="F81" s="3">
         <v>77400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>58300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>208000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>42100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>72100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>8900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>160600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>77700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>181800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>110000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>5600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-47000</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4399,8 +4788,14 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4421,53 +4816,55 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E83" s="3">
         <v>3900</v>
-      </c>
-      <c r="E83" s="3">
-        <v>3800</v>
       </c>
       <c r="F83" s="3">
         <v>3900</v>
       </c>
       <c r="G83" s="3">
+        <v>3800</v>
+      </c>
+      <c r="H83" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I83" s="3">
         <v>4100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>4100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>1600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>1700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>2800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>1000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>3700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>7300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>3400</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4477,8 +4874,14 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4533,8 +4936,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4589,8 +4998,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4645,8 +5060,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4701,8 +5122,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4757,53 +5184,59 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>78500</v>
+      </c>
+      <c r="F89" s="3">
         <v>251600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>57700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>871700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-88900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>478400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>256500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>34300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-50300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-133900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-283800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-424700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-301100</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4813,8 +5246,14 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4835,53 +5274,55 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-1500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-3300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-3700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-3700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-1500</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4891,8 +5332,14 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4947,8 +5394,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5003,53 +5456,59 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-14400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-88300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>1000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-3300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-15600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-13500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-2300</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5059,8 +5518,14 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5081,8 +5546,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5096,20 +5563,20 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-61100</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-60000</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -5137,8 +5604,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5193,8 +5666,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5249,8 +5728,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5305,53 +5790,59 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>52100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-97500</v>
+      </c>
+      <c r="F100" s="3">
         <v>-335700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-52100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-868500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>42400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-407700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-248700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-53400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>136700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>241000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>341300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>482200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>317700</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5361,8 +5852,14 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5417,53 +5914,59 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-84600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>4300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>2200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-60800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-17600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>6600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-19700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>87300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>103800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>41700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>44000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>14300</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5471,6 +5974,12 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GHLD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GHLD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="92">
   <si>
     <t>GHLD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,80 +665,81 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
@@ -751,56 +752,59 @@
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>223900</v>
+      </c>
+      <c r="E8" s="3">
         <v>171000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>177000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>230800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>277400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>311300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>375600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>463800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>393100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>507000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>521900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>620000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>837500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1023500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>422400</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
@@ -813,8 +817,11 @@
       <c r="V8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -875,8 +882,11 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,8 +947,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -961,8 +974,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1023,8 +1037,11 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1085,8 +1102,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1147,8 +1167,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1156,47 +1179,47 @@
         <v>3700</v>
       </c>
       <c r="E15" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="F15" s="3">
         <v>3900</v>
       </c>
       <c r="G15" s="3">
+        <v>3900</v>
+      </c>
+      <c r="H15" s="3">
         <v>3800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>3900</v>
-      </c>
-      <c r="I15" s="3">
-        <v>4100</v>
       </c>
       <c r="J15" s="3">
         <v>4100</v>
       </c>
       <c r="K15" s="3">
+        <v>4100</v>
+      </c>
+      <c r="L15" s="3">
         <v>1600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>7300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3800</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1209,8 +1232,11 @@
       <c r="V15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1230,56 +1256,57 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>156200</v>
+      </c>
+      <c r="E17" s="3">
         <v>209600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>187400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>132800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>188100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>19000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>298100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>351000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>365000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>276800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>404200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>358500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>663700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>962300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>461700</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1292,56 +1319,59 @@
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>67700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-38600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-10400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>98000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>89300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>292300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>77500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>112800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>28100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>230200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>117700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>261500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>173800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>61200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-39300</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1354,8 +1384,11 @@
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1378,8 +1411,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1425,8 +1459,8 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
+      <c r="R20" s="3">
+        <v>0</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
@@ -1440,56 +1474,59 @@
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>71400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-34800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-6500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>101900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>93200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>296200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>81600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>116900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>29700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>231800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>120600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>262500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>177600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>68600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-35900</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1502,56 +1539,59 @@
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E22" s="3">
         <v>12300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>12800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>11300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>10900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>14100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>15600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>15300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>14200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>16500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>17200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>15500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>27400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>55400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>23100</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1564,56 +1604,59 @@
       <c r="V22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-50800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-23200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>86700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>78400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>278200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>61900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>97500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>13900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>213600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>100500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>246000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>146500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-62400</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1626,56 +1669,59 @@
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-13600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-8200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>9300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>20100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>70200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>19800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>25400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>53000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>22800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>64200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>36500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-15400</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1688,8 +1734,11 @@
       <c r="V24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1750,56 +1799,59 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>36900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-37200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-15000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>77400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>58300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>208000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>42100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>72100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>160600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>77700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>181800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>110000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-47000</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1812,56 +1864,59 @@
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>36900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-37200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-15000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>77400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>58300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>208000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>42100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>72100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>160600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>77700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>181800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>110000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-47000</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1874,8 +1929,11 @@
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1936,8 +1994,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1998,8 +2059,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2060,8 +2124,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2122,8 +2189,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2169,8 +2239,8 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
+      <c r="R32" s="3">
+        <v>0</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
@@ -2184,56 +2254,59 @@
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>36900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-37200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-15000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>77400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>58300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>208000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>42100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>72100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>160600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>77700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>181800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>110000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-47000</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2246,8 +2319,11 @@
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2308,56 +2384,59 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>36900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-37200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-15000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>77400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>58300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>208000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>42100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>72100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>8900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>160600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>77700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>181800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>110000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-47000</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,61 +2449,64 @@
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2437,8 +2519,11 @@
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2461,8 +2546,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2485,50 +2571,51 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>106000</v>
+      </c>
+      <c r="E41" s="3">
         <v>147800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>137900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>162200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>249000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>244000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>243100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>302900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>322000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>315500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>334600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>247300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>144900</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2547,8 +2634,11 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2609,50 +2699,53 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E43" s="3">
         <v>62200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>58300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>32100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>23500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>34500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>68400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>52200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>41300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>38200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>44900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>34800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>27600</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2671,8 +2764,11 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2733,50 +2829,53 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E45" s="3">
         <v>27000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>31500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>30000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>26900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>32800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>32900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>19700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>15400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>15800</v>
-      </c>
-      <c r="M45" s="3">
-        <v>16700</v>
       </c>
       <c r="N45" s="3">
         <v>16700</v>
       </c>
       <c r="O45" s="3">
+        <v>16700</v>
+      </c>
+      <c r="P45" s="3">
         <v>15200</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,8 +2894,11 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2857,50 +2959,53 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1187100</v>
+      </c>
+      <c r="E47" s="3">
         <v>883100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>872400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>965700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1283900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1321400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2243600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2149100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2154100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2346000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2368900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2239200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1982600</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2919,50 +3024,53 @@
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>86900</v>
+      </c>
+      <c r="E48" s="3">
         <v>82500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>86800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>88900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>94000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>97700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>102300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>104100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>91800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>97000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>102300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>10300</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2981,34 +3089,37 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>214000</v>
+      </c>
+      <c r="E49" s="3">
         <v>213200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>209800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>208500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>210500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>212500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>216200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>218200</v>
-      </c>
-      <c r="K49" s="3">
-        <v>62800</v>
       </c>
       <c r="L49" s="3">
         <v>62800</v>
@@ -3022,8 +3133,8 @@
       <c r="O49" s="3">
         <v>62800</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
+      <c r="P49" s="3">
+        <v>62800</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
@@ -3043,8 +3154,11 @@
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3105,8 +3219,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3167,50 +3284,53 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E52" s="3">
         <v>6200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6000</v>
-      </c>
-      <c r="K52" s="3">
-        <v>4500</v>
       </c>
       <c r="L52" s="3">
         <v>4500</v>
       </c>
       <c r="M52" s="3">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="N52" s="3">
         <v>5000</v>
       </c>
       <c r="O52" s="3">
+        <v>5000</v>
+      </c>
+      <c r="P52" s="3">
         <v>3500</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3229,8 +3349,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3291,50 +3414,53 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3532600</v>
+      </c>
+      <c r="E54" s="3">
         <v>3181500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3239600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3344100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3601000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3633500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4383200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4484300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4393400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4877900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4818100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4397100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3703000</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3353,8 +3479,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3377,8 +3506,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3401,50 +3531,51 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E57" s="3">
         <v>36600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>34100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>40900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>44500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>51300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>56800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>66000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>45300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>43700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>41100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>72200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>36000</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3463,8 +3594,11 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3525,50 +3659,53 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>118000</v>
+      </c>
+      <c r="E59" s="3">
         <v>107800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>115600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>122800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>138000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>143700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>172900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>179500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>166200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>195600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>220700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>99700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>106700</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3587,8 +3724,11 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3649,50 +3789,53 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1775700</v>
+      </c>
+      <c r="E61" s="3">
         <v>1484300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1489600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1540400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1883900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1945800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2907000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2986700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3086300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3478100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3566200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3297000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2830100</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3711,50 +3854,53 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>327700</v>
+      </c>
+      <c r="E62" s="3">
         <v>312500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>328700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>333700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>322500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>311400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>243800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>215600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>201600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>226700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>178600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>181600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>141600</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3773,8 +3919,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3835,8 +3984,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3897,8 +4049,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3959,50 +4114,53 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2281200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1968300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1990400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2078600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2413200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2504300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3463200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3546800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3544800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3979700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4082100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3708200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3196200</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4021,8 +4179,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4045,8 +4206,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4107,8 +4269,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4169,8 +4334,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4231,8 +4399,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4293,50 +4464,53 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1205700</v>
+      </c>
+      <c r="E72" s="3">
         <v>1168700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1205900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1220900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1143500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1085200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>877200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>897600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>825500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>878000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>717400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>666800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>484700</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4355,8 +4529,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4417,8 +4594,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4479,8 +4659,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4541,50 +4724,53 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1251400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1213200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1249200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1265500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1187800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1129200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>920000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>937500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>848600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>898200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>736000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>688900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>506800</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4603,8 +4789,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4665,61 +4854,64 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4732,56 +4924,59 @@
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>36900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-37200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-15000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>77400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>58300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>208000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>42100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>72100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>8900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>160600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>77700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>181800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>110000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-47000</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4794,8 +4989,11 @@
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4818,8 +5016,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4827,47 +5026,47 @@
         <v>3700</v>
       </c>
       <c r="E83" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="F83" s="3">
         <v>3900</v>
       </c>
       <c r="G83" s="3">
+        <v>3900</v>
+      </c>
+      <c r="H83" s="3">
         <v>3800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3900</v>
-      </c>
-      <c r="I83" s="3">
-        <v>4100</v>
       </c>
       <c r="J83" s="3">
         <v>4100</v>
       </c>
       <c r="K83" s="3">
+        <v>4100</v>
+      </c>
+      <c r="L83" s="3">
         <v>1600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3400</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4880,8 +5079,11 @@
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4942,8 +5144,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5004,8 +5209,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5066,8 +5274,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5128,8 +5339,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5190,56 +5404,59 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-286300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-29600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>78500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>251600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>57700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>871700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-88900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>478400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>256500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>34300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-50300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-133900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-283800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-424700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-301100</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5252,8 +5469,11 @@
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5276,56 +5496,57 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3300</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-3700</v>
       </c>
       <c r="P91" s="3">
         <v>-3700</v>
       </c>
       <c r="Q91" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="R91" s="3">
         <v>-1500</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5338,8 +5559,11 @@
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5400,8 +5624,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5462,56 +5689,59 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-39200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-15200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-14400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-88300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-15600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-13500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2300</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5524,8 +5754,11 @@
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5548,8 +5781,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5569,17 +5803,17 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-61100</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-60000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -5610,8 +5844,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5672,8 +5909,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5734,8 +5974,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5796,56 +6039,59 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>283300</v>
+      </c>
+      <c r="E100" s="3">
         <v>52100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-97500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-335700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-52100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-868500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>42400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-407700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-248700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-53400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>136700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>241000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>341300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>482200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>317700</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5858,8 +6104,11 @@
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5920,56 +6169,59 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-42200</v>
+      </c>
+      <c r="E102" s="3">
         <v>7300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-23200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-84600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-60800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-17600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-19700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>87300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>103800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>41700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>44000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>14300</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5980,6 +6232,9 @@
         <v>3</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GHLD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GHLD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="92">
   <si>
     <t>GHLD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,84 +665,85 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
@@ -755,59 +756,62 @@
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>251800</v>
+      </c>
+      <c r="E8" s="3">
         <v>223900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>171000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>177000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>230800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>277400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>311300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>375600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>463800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>393100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>507000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>521900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>620000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>837500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1023500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>422400</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
@@ -820,8 +824,11 @@
       <c r="W8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -885,8 +892,11 @@
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +960,11 @@
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +988,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1040,8 +1054,11 @@
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1105,8 +1122,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1170,8 +1190,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1182,47 +1205,47 @@
         <v>3700</v>
       </c>
       <c r="F15" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="G15" s="3">
         <v>3900</v>
       </c>
       <c r="H15" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I15" s="3">
         <v>3800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>3900</v>
-      </c>
-      <c r="J15" s="3">
-        <v>4100</v>
       </c>
       <c r="K15" s="3">
         <v>4100</v>
       </c>
       <c r="L15" s="3">
+        <v>4100</v>
+      </c>
+      <c r="M15" s="3">
         <v>1600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>7300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3800</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1235,8 +1258,11 @@
       <c r="W15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1257,59 +1283,60 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>158900</v>
+      </c>
+      <c r="E17" s="3">
         <v>156200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>209600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>187400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>132800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>188100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>19000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>298100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>351000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>365000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>276800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>404200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>358500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>663700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>962300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>461700</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1322,59 +1349,62 @@
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>92900</v>
+      </c>
+      <c r="E18" s="3">
         <v>67700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-38600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-10400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>98000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>89300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>292300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>77500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>112800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>28100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>230200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>117700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>261500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>173800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>61200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-39300</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1387,8 +1417,11 @@
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1412,8 +1445,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1462,8 +1496,8 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
+      <c r="S20" s="3">
+        <v>0</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
@@ -1477,59 +1511,62 @@
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>96600</v>
+      </c>
+      <c r="E21" s="3">
         <v>71400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-34800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-6500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>101900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>93200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>296200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>81600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>116900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>29700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>231800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>120600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>262500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>177600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>68600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-35900</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1542,59 +1579,62 @@
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E22" s="3">
         <v>17300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>12300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>12800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>11300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>10900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>14100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>15600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>15300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>14200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>16500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>17200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>15500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>27400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>55400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>23100</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1607,59 +1647,62 @@
       <c r="W22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>73500</v>
+      </c>
+      <c r="E23" s="3">
         <v>50400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-50800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-23200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>86700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>78400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>278200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>61900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>97500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>13900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>213600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>100500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>246000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>146500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-62400</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1672,59 +1715,62 @@
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E24" s="3">
         <v>13500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-13600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-8200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>9300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>20100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>70200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>19800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>25400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>53000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>22800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>64200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>36500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-15400</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1737,8 +1783,11 @@
       <c r="W24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1802,59 +1851,62 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>54200</v>
+      </c>
+      <c r="E26" s="3">
         <v>36900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-37200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-15000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>77400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>58300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>208000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>42100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>72100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>8900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>160600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>77700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>181800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>110000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-47000</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1867,59 +1919,62 @@
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>54200</v>
+      </c>
+      <c r="E27" s="3">
         <v>36900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-37200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-15000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>77400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>58300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>208000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>42100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>72100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>8900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>160600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>77700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>181800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>110000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>5600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-47000</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1932,8 +1987,11 @@
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1997,8 +2055,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2062,8 +2123,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2127,8 +2191,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2192,8 +2259,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2242,8 +2312,8 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
+      <c r="S32" s="3">
+        <v>0</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
@@ -2257,59 +2327,62 @@
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>54200</v>
+      </c>
+      <c r="E33" s="3">
         <v>36900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-37200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-15000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>77400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>58300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>208000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>42100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>72100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>8900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>160600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>77700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>181800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>110000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>5600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-47000</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2322,8 +2395,11 @@
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2387,59 +2463,62 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>54200</v>
+      </c>
+      <c r="E35" s="3">
         <v>36900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-37200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-15000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>77400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>58300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>208000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>42100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>72100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>8900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>160600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>77700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>181800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>110000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>5600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-47000</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2452,64 +2531,67 @@
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2522,8 +2604,11 @@
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2547,8 +2632,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2572,53 +2658,54 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>114400</v>
+      </c>
+      <c r="E41" s="3">
         <v>106000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>147800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>137900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>162200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>249000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>244000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>243100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>302900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>322000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>315500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>334600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>247300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>144900</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2637,8 +2724,11 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2702,53 +2792,56 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>63600</v>
+      </c>
+      <c r="E43" s="3">
         <v>65000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>62200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>58300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>32100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>23500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>34500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>68400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>52200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>41300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>38200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>44900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>34800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>27600</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2767,8 +2860,11 @@
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2832,53 +2928,56 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E45" s="3">
         <v>25400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>27000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>31500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>30000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>26900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>32800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>32900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>19700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>15400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>15800</v>
-      </c>
-      <c r="N45" s="3">
-        <v>16700</v>
       </c>
       <c r="O45" s="3">
         <v>16700</v>
       </c>
       <c r="P45" s="3">
+        <v>16700</v>
+      </c>
+      <c r="Q45" s="3">
         <v>15200</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2897,8 +2996,11 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2962,53 +3064,56 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1022600</v>
+      </c>
+      <c r="E47" s="3">
         <v>1187100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>883100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>872400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>965700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1283900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1321400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2243600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2149100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2154100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2346000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2368900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2239200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1982600</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3027,53 +3132,56 @@
       <c r="W47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>84100</v>
+      </c>
+      <c r="E48" s="3">
         <v>86900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>82500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>86800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>88900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>94000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>97700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>102300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>104100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>91800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>97000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>102300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>10300</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3092,37 +3200,40 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>213300</v>
+      </c>
+      <c r="E49" s="3">
         <v>214000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>213200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>209800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>208500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>210500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>212500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>216200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>218200</v>
-      </c>
-      <c r="L49" s="3">
-        <v>62800</v>
       </c>
       <c r="M49" s="3">
         <v>62800</v>
@@ -3136,8 +3247,8 @@
       <c r="P49" s="3">
         <v>62800</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
+      <c r="Q49" s="3">
+        <v>62800</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>3</v>
@@ -3157,8 +3268,11 @@
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3222,8 +3336,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3287,53 +3404,56 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E52" s="3">
         <v>5900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6000</v>
-      </c>
-      <c r="L52" s="3">
-        <v>4500</v>
       </c>
       <c r="M52" s="3">
         <v>4500</v>
       </c>
       <c r="N52" s="3">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="O52" s="3">
         <v>5000</v>
       </c>
       <c r="P52" s="3">
+        <v>5000</v>
+      </c>
+      <c r="Q52" s="3">
         <v>3500</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3352,8 +3472,11 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3417,53 +3540,56 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3496600</v>
+      </c>
+      <c r="E54" s="3">
         <v>3532600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3181500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3239600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3344100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3601000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3633500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4383200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4484300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4393400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4877900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4818100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4397100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3703000</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3482,8 +3608,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3507,8 +3636,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3532,53 +3662,54 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E57" s="3">
         <v>33600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>36600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>34100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>40900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>44500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>51300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>56800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>66000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>45300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>43700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>41100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>72200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>36000</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3597,8 +3728,11 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3662,53 +3796,56 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>113900</v>
+      </c>
+      <c r="E59" s="3">
         <v>118000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>107800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>115600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>122800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>138000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>143700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>172900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>179500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>166200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>195600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>220700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>99700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>106700</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3727,8 +3864,11 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3792,53 +3932,56 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1698500</v>
+      </c>
+      <c r="E61" s="3">
         <v>1775700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1484300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1489600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1540400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1883900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1945800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2907000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2986700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3086300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3478100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3566200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3297000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2830100</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3857,53 +4000,56 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>346800</v>
+      </c>
+      <c r="E62" s="3">
         <v>327700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>312500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>328700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>333700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>322500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>311400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>243800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>215600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>201600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>226700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>178600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>181600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>141600</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3922,8 +4068,11 @@
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3987,8 +4136,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4052,8 +4204,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4117,53 +4272,56 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2220100</v>
+      </c>
+      <c r="E66" s="3">
         <v>2281200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1968300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1990400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2078600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2413200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2504300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3463200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3546800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3544800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3979700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4082100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3708200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3196200</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4182,8 +4340,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4207,8 +4368,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4272,8 +4434,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4337,8 +4502,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4402,8 +4570,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4467,53 +4638,56 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1228400</v>
+      </c>
+      <c r="E72" s="3">
         <v>1205700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1168700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1205900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1220900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1143500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1085200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>877200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>897600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>825500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>878000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>717400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>666800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>484700</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4532,8 +4706,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4597,8 +4774,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4662,8 +4842,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4727,53 +4910,56 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1276500</v>
+      </c>
+      <c r="E76" s="3">
         <v>1251400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1213200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1249200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1265500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1187800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1129200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>920000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>937500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>848600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>898200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>736000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>688900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>506800</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4792,8 +4978,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4857,64 +5046,67 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4927,59 +5119,62 @@
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>54200</v>
+      </c>
+      <c r="E81" s="3">
         <v>36900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-37200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-15000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>77400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>58300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>208000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>42100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>72100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>8900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>160600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>77700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>181800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>110000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>5600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-47000</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4992,8 +5187,11 @@
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5017,8 +5215,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5029,47 +5228,47 @@
         <v>3700</v>
       </c>
       <c r="F83" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="G83" s="3">
         <v>3900</v>
       </c>
       <c r="H83" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I83" s="3">
         <v>3800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3900</v>
-      </c>
-      <c r="J83" s="3">
-        <v>4100</v>
       </c>
       <c r="K83" s="3">
         <v>4100</v>
       </c>
       <c r="L83" s="3">
+        <v>4100</v>
+      </c>
+      <c r="M83" s="3">
         <v>1600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>7300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3400</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
@@ -5082,8 +5281,11 @@
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5147,8 +5349,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5212,8 +5417,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5277,8 +5485,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5342,8 +5553,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5407,59 +5621,62 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>205200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-286300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-29600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>78500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>251600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>57700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>871700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-88900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>478400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>256500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>34300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-50300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-133900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-283800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-424700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-301100</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5472,8 +5689,11 @@
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5497,59 +5717,60 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3300</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-3700</v>
       </c>
       <c r="Q91" s="3">
         <v>-3700</v>
       </c>
       <c r="R91" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="S91" s="3">
         <v>-1500</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5562,8 +5783,11 @@
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5627,8 +5851,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5692,59 +5919,62 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-51400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-39200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-15200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-14400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-88300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-15600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-13500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2300</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5757,8 +5987,11 @@
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5782,8 +6015,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5806,17 +6040,17 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-61100</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-60000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -5847,8 +6081,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5912,8 +6149,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5977,8 +6217,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6042,59 +6285,62 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-147700</v>
+      </c>
+      <c r="E100" s="3">
         <v>283300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>52100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-97500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-335700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-52100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-868500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>42400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-407700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-248700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-53400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>136700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>241000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>341300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>482200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>317700</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
@@ -6107,8 +6353,11 @@
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6172,59 +6421,62 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-42200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-23200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-84600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-60800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-17600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-19700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>87300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>103800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>41700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>44000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>14300</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
@@ -6235,6 +6487,9 @@
         <v>3</v>
       </c>
       <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
